--- a/10月シフト後半.xlsx
+++ b/10月シフト後半.xlsx
@@ -29,12 +29,24 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000bfff"/>
+        <bgColor rgb="0000bfff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007cfc00"/>
+        <bgColor rgb="007cfc00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -511,17 +525,17 @@
           <t>×</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -541,7 +555,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -573,17 +587,17 @@
           <t>×</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -613,7 +627,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -625,7 +639,7 @@
           <t>10/17(日) 11:00～17:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -665,7 +679,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -687,7 +701,7 @@
           <t>17:00～22:00</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -727,7 +741,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -737,7 +751,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -799,7 +813,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -826,12 +840,12 @@
           <t>×</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -861,7 +875,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -873,7 +887,7 @@
           <t>10/19(火) 11:00～17:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -883,7 +897,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -935,7 +949,7 @@
           <t>17:00～22:00</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -945,7 +959,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -960,22 +974,22 @@
           <t>×</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1012,12 +1026,12 @@
           <t>×</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -1047,7 +1061,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -1059,7 +1073,7 @@
           <t>17:00～22:00</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1069,7 +1083,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1099,7 +1113,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -1109,7 +1123,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1121,17 +1135,17 @@
           <t>10/21(木) 11:00～17:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1146,7 +1160,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -1183,7 +1197,7 @@
           <t>17:00～22:00</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1193,7 +1207,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -1223,7 +1237,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1307,12 +1321,12 @@
           <t>17:00～22:00</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1347,7 +1361,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -1379,17 +1393,17 @@
           <t>×</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1414,7 +1428,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -1441,17 +1455,17 @@
           <t>×</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -1476,12 +1490,12 @@
           <t>×</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1493,7 +1507,7 @@
           <t>10/24(日) 11:00～17:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -1555,7 +1569,7 @@
           <t>17:00～22:00</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -1590,7 +1604,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -1605,7 +1619,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -1632,12 +1646,12 @@
           <t>×</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -1667,7 +1681,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1694,12 +1708,12 @@
           <t>×</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1709,7 +1723,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1729,7 +1743,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -1741,7 +1755,7 @@
           <t>10/26(火) 11:00～17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1751,7 +1765,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1803,7 +1817,7 @@
           <t>17:00～22:00</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1813,7 +1827,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1828,22 +1842,22 @@
           <t>×</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1880,12 +1894,12 @@
           <t>×</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -1915,7 +1929,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1927,7 +1941,7 @@
           <t>17:00～22:00</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1937,7 +1951,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1957,7 +1971,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1967,7 +1981,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -1989,17 +2003,17 @@
           <t>10/28(木) 11:00～17:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -2014,7 +2028,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -2051,7 +2065,7 @@
           <t>17:00～22:00</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -2061,7 +2075,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -2081,7 +2095,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -2091,7 +2105,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -2175,7 +2189,7 @@
           <t>17:00～22:00</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -2205,7 +2219,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -2215,7 +2229,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -2247,17 +2261,17 @@
           <t>×</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -2267,7 +2281,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -2277,7 +2291,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -2309,17 +2323,17 @@
           <t>×</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -2349,7 +2363,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -2361,7 +2375,7 @@
           <t>10/31(日) 11:00～17:00</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -2376,12 +2390,12 @@
           <t>×</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -2391,7 +2405,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -2401,7 +2415,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -2423,7 +2437,7 @@
           <t>17:00～22:00</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -2438,7 +2452,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -2458,7 +2472,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -2473,7 +2487,7 @@
           <t>×</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -2500,14 +2514,6 @@
           <t>火曜と木曜の前半は13時30分から大丈夫です。</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
